--- a/Aquaproofing/21030/Master - Murray Halberg - B08 - Aqua Proofing.xlsx
+++ b/Aquaproofing/21030/Master - Murray Halberg - B08 - Aqua Proofing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ryman-my.sharepoint.com/personal/michael_ajero_rymanhealthcare_com/Documents/Desktop/Conqa Break Down/B08/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Aquaproofing\21030\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{C435CFF5-5DA1-4B2E-A59D-54F52E32F0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EBF39C3-283A-4FFB-9740-627E88517D60}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2F3BC4-665F-483F-A915-B7CFAF47E524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{4333DDC0-474B-4390-98AE-5AD24C7F2C95}"/>
+    <workbookView xWindow="7995" yWindow="1215" windowWidth="29850" windowHeight="19245" activeTab="1" xr2:uid="{4333DDC0-474B-4390-98AE-5AD24C7F2C95}"/>
   </bookViews>
   <sheets>
     <sheet name="Breakdown" sheetId="1" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F09AA6-C731-440B-9188-664888D50E38}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:F40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6216497E-92F7-478C-BE27-0ECC3E9CDCA6}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
